--- a/课件/SSM/Mybatis/MyBatis笔记.xlsx
+++ b/课件/SSM/Mybatis/MyBatis笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mybatis基本操作" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
   <si>
     <t>MyBatis</t>
   </si>
@@ -75,6 +75,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>方式一</t>
     </r>
     <r>
@@ -93,6 +100,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>方式二</t>
     </r>
     <r>
@@ -132,6 +146,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>对应日期和字符串类型</t>
     </r>
     <r>
@@ -262,10 +283,189 @@
     <t>SELECT * FROM customer WHERE uid IN (1,2,3)</t>
   </si>
   <si>
-    <t>collection  参数类型(list array..)</t>
-  </si>
-  <si>
-    <t>item 每一个临时变量   index 下标  open 开始符号  separator 分隔符  close 结束符号</t>
+    <r>
+      <t xml:space="preserve">collection </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规定接收参数类型</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(List(list) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果是</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>set Map</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集合</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (collection) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数组</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array) )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">item </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集合中每一个项目</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  index </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索引下标</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规定开始的内容</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">separator </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分隔符</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">close </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规定结束的内容</t>
+    </r>
   </si>
   <si>
     <t>resultType 自动映射结果集</t>
@@ -335,6 +535,96 @@
   </si>
   <si>
     <t>一个部门多个员工</t>
+  </si>
+  <si>
+    <t>-- 部门表 (部门编号 部门名称  部门地址)</t>
+  </si>
+  <si>
+    <t>-- 员工表 (员工编号 员工名字 员工工资  部门编号)</t>
+  </si>
+  <si>
+    <t>--  一对一关系：一个员工对应一个部门</t>
+  </si>
+  <si>
+    <t>-- 内连接:返回满足条件的数据</t>
+  </si>
+  <si>
+    <t>select * from emp e,dept d where e.did = d.DID and e.ENAME = 'tom';</t>
+  </si>
+  <si>
+    <t>-- 查询所有的员工(包括员工所在部门名称) 有的员工没有部门 外连接</t>
+  </si>
+  <si>
+    <t>-- List&lt;Emp&gt;</t>
+  </si>
+  <si>
+    <t>select e.eid,e.ENAME,e.ESAL,e.did,d.DNAME from emp e left join dept d on e.did = d.did</t>
+  </si>
+  <si>
+    <t>--  一对多关系: 一个部门有多个员工</t>
+  </si>
+  <si>
+    <t>-- 查询所有部门以及部门对应的员工 有的部门没有员工</t>
+  </si>
+  <si>
+    <t>select d.did,d.dname,d.dloc,e.ename,e.esal from dept d left join emp e on d.did = e.did;</t>
+  </si>
+  <si>
+    <t>-- 建立主外键关联 约束不在数据库进行添加 逻辑通过java代码控制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- 外键约束:级联删除(如果删除部门表中一行记录 如果部门编号被员工表数据引用 对应员工也会删除) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">--  级联置空 (如果删除部门表中一行记录 如果部门编号被员工表数据引用 对应员工的部门编号为空) </t>
+  </si>
+  <si>
+    <t>多对多</t>
+  </si>
+  <si>
+    <t>角色和用户表</t>
+  </si>
+  <si>
+    <t>-- 一个用户可以有多个角色  一对多</t>
+  </si>
+  <si>
+    <t>-- 一个角色可以分配给多个用户 一对多</t>
+  </si>
+  <si>
+    <t>-- 角色表 (角色编号 角色名称（超级管理员 普通管理员 普通员工...）)</t>
+  </si>
+  <si>
+    <t>-- A001 超级管理员</t>
+  </si>
+  <si>
+    <t>-- A002 普通管理员</t>
+  </si>
+  <si>
+    <t>-- A003 普通员工</t>
+  </si>
+  <si>
+    <t>-- 用户表 (用户编号 用户名字)</t>
+  </si>
+  <si>
+    <t>-- 1001 tom</t>
+  </si>
+  <si>
+    <t>-- 1002 jack</t>
+  </si>
+  <si>
+    <t>-- 1003 rose</t>
+  </si>
+  <si>
+    <t>角色-员工 中间表(序号 (角色编号 用户编号))</t>
+  </si>
+  <si>
+    <t>-- 1001 A001</t>
+  </si>
+  <si>
+    <t>-- 1001 A003</t>
+  </si>
+  <si>
+    <t>-- 1002 A003</t>
   </si>
   <si>
     <t>Cache</t>
@@ -410,7 +700,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +767,13 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
@@ -628,6 +925,13 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -955,10 +1259,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,34 +1271,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,98 +1307,101 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1108,6 +1412,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1199,8 +1504,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1857375" y="3067050"/>
-          <a:ext cx="10288270" cy="3038475"/>
+          <a:off x="1857375" y="2990850"/>
+          <a:ext cx="10288270" cy="2914650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1237,8 +1542,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2705100" y="7724775"/>
-          <a:ext cx="2514600" cy="923925"/>
+          <a:off x="2705100" y="7467600"/>
+          <a:ext cx="2514600" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1279,8 +1584,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="10096500"/>
-          <a:ext cx="6934200" cy="7362825"/>
+          <a:off x="2743200" y="9744075"/>
+          <a:ext cx="6934200" cy="7077075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1321,8 +1626,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="18907125"/>
-          <a:ext cx="7296150" cy="7734300"/>
+          <a:off x="2743200" y="18202275"/>
+          <a:ext cx="7296150" cy="7429500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1363,8 +1668,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3952875" y="31584900"/>
-          <a:ext cx="7400925" cy="1390650"/>
+          <a:off x="3952875" y="30384750"/>
+          <a:ext cx="7400925" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1405,8 +1710,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4114800" y="29384625"/>
-          <a:ext cx="8067675" cy="1190625"/>
+          <a:off x="4114800" y="28260675"/>
+          <a:ext cx="8067675" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1447,8 +1752,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="40119300"/>
-          <a:ext cx="7096125" cy="1371600"/>
+          <a:off x="2057400" y="38576250"/>
+          <a:ext cx="7096125" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1489,8 +1794,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="42262425"/>
-          <a:ext cx="6372225" cy="1362075"/>
+          <a:off x="2057400" y="40633650"/>
+          <a:ext cx="6372225" cy="1314450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1536,8 +1841,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485900" y="12687300"/>
-          <a:ext cx="13898880" cy="2952750"/>
+          <a:off x="1485900" y="13106400"/>
+          <a:ext cx="13898880" cy="3048000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1574,8 +1879,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="17545050"/>
-          <a:ext cx="7906385" cy="7363460"/>
+          <a:off x="1371600" y="18126075"/>
+          <a:ext cx="7906385" cy="7601585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1612,8 +1917,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="25831800"/>
-          <a:ext cx="8915400" cy="7792085"/>
+          <a:off x="1371600" y="26689050"/>
+          <a:ext cx="8915400" cy="8049260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1650,8 +1955,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1924050" y="35290125"/>
-          <a:ext cx="12488545" cy="2009775"/>
+          <a:off x="1924050" y="36461700"/>
+          <a:ext cx="12488545" cy="2076450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1688,8 +1993,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2085975" y="2181225"/>
-          <a:ext cx="12382500" cy="1533525"/>
+          <a:off x="2085975" y="2247900"/>
+          <a:ext cx="12382500" cy="1581150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1730,8 +2035,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="4629150"/>
-          <a:ext cx="5372100" cy="1743075"/>
+          <a:off x="2057400" y="4781550"/>
+          <a:ext cx="5372100" cy="1800225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1772,8 +2077,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2152650" y="7058025"/>
-          <a:ext cx="7210425" cy="1724025"/>
+          <a:off x="2152650" y="7286625"/>
+          <a:ext cx="7210425" cy="1781175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1800,7 +2105,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
@@ -1819,8 +2124,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="6724650"/>
-          <a:ext cx="2686050" cy="2590800"/>
+          <a:off x="2057400" y="6486525"/>
+          <a:ext cx="2686050" cy="2495550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1842,7 +2147,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1861,8 +2166,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2209800" y="9848850"/>
-          <a:ext cx="6219825" cy="2428875"/>
+          <a:off x="2209800" y="9486900"/>
+          <a:ext cx="6219825" cy="2333625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1884,7 +2189,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
@@ -1903,8 +2208,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2200275" y="12858750"/>
-          <a:ext cx="11249025" cy="266700"/>
+          <a:off x="2200275" y="12382500"/>
+          <a:ext cx="11249025" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1926,7 +2231,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -1945,8 +2250,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2105025" y="14230350"/>
-          <a:ext cx="4981575" cy="971550"/>
+          <a:off x="2105025" y="13696950"/>
+          <a:ext cx="4981575" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1967,8 +2272,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1987,8 +2292,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="16011525"/>
-          <a:ext cx="4810125" cy="962025"/>
+          <a:off x="2057400" y="15401925"/>
+          <a:ext cx="4810125" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2010,7 +2315,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -2029,8 +2334,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="17440275"/>
-          <a:ext cx="12515850" cy="1571625"/>
+          <a:off x="2057400" y="16773525"/>
+          <a:ext cx="12515850" cy="1514475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2052,7 +2357,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -2071,8 +2376,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2124075" y="20154900"/>
-          <a:ext cx="4943475" cy="981075"/>
+          <a:off x="2124075" y="19383375"/>
+          <a:ext cx="4943475" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2094,9 +2399,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2113,7 +2418,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="21726525"/>
+          <a:off x="2057400" y="20888325"/>
           <a:ext cx="11906250" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2136,7 +2441,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -2155,8 +2460,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="23155275"/>
-          <a:ext cx="2533650" cy="2514600"/>
+          <a:off x="2057400" y="22259925"/>
+          <a:ext cx="2533650" cy="2419350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2178,7 +2483,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -2197,8 +2502,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2228850" y="26050875"/>
-          <a:ext cx="11068050" cy="1847850"/>
+          <a:off x="2228850" y="25041225"/>
+          <a:ext cx="11068050" cy="1781175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2244,8 +2549,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2295525" y="2981325"/>
-          <a:ext cx="6915150" cy="3095625"/>
+          <a:off x="2295525" y="2895600"/>
+          <a:ext cx="6915150" cy="2971800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2286,8 +2591,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2733675" y="17211675"/>
-          <a:ext cx="4105275" cy="809625"/>
+          <a:off x="2733675" y="16554450"/>
+          <a:ext cx="4105275" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2328,8 +2633,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2724150" y="7029450"/>
-          <a:ext cx="6962775" cy="3771900"/>
+          <a:off x="2724150" y="6781800"/>
+          <a:ext cx="6962775" cy="3619500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2370,8 +2675,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2752725" y="15382875"/>
-          <a:ext cx="5553075" cy="904875"/>
+          <a:off x="2752725" y="14801850"/>
+          <a:ext cx="5553075" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2394,8 +2699,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2412,8 +2717,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="11972925"/>
-          <a:ext cx="4171950" cy="942975"/>
+          <a:off x="2743200" y="11525250"/>
+          <a:ext cx="4171950" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2736,11 +3041,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:R176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A161" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
@@ -2756,7 +3061,7 @@
       </c>
     </row>
     <row r="7" ht="20.25" spans="4:4">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2982,18 +3287,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:P132"/>
+  <dimension ref="B2:P136"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" ht="27" spans="2:2">
+    <row r="2" ht="27.75" spans="2:2">
       <c r="B2" s="7" t="s">
         <v>44</v>
       </c>
@@ -3058,7 +3363,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" ht="27" spans="2:2">
+    <row r="41" ht="27.75" spans="2:2">
       <c r="B41" s="7" t="s">
         <v>59</v>
       </c>
@@ -3104,12 +3409,29 @@
         <v>68</v>
       </c>
     </row>
-    <row r="132" spans="4:10">
-      <c r="D132" s="6" t="s">
+    <row r="132" ht="24" spans="4:4">
+      <c r="D132" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J132" s="6" t="s">
+    </row>
+    <row r="133" ht="24" spans="4:4">
+      <c r="D133" s="9" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="134" ht="24" spans="4:4">
+      <c r="D134" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" ht="24" spans="4:4">
+      <c r="D135" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" ht="24" spans="4:4">
+      <c r="D136" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3122,126 +3444,290 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:F96"/>
+  <dimension ref="B3:F160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="J154" sqref="J154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="10.625" style="2"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="3" ht="20.25" spans="2:2">
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="20.25" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="20.25" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="4:6">
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" s="2" t="e">
+        <f>--表与表的关系</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4">
+      <c r="D127" s="2" t="e">
+        <f>--查询tom在哪一个部门</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4">
+      <c r="D132" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4">
+      <c r="D134" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4">
+      <c r="D136" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4">
+      <c r="D137" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="D141" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="D142" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4">
+      <c r="D146" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4">
+      <c r="D147" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4">
+      <c r="D148" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4">
+      <c r="D149" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4">
+      <c r="D150" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4">
+      <c r="D152" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4">
+      <c r="D153" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4">
+      <c r="D154" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4">
+      <c r="D155" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4">
+      <c r="D157" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4">
+      <c r="D158" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4">
+      <c r="D159" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4">
+      <c r="D160" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3256,87 +3742,87 @@
   <sheetPr/>
   <dimension ref="B3:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="22.5" spans="2:2">
+    <row r="3" ht="23.25" spans="2:2">
       <c r="B3" s="3" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" ht="20.25" spans="3:3">
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="5" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="4:9">
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="4:11">
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="5" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="5:5">
       <c r="E59" s="2" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="5:5">
       <c r="E60" s="2" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="4:6">
       <c r="D63" s="2" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71" s="2" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3351,8 +3837,8 @@
   <sheetPr/>
   <dimension ref="C3:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" outlineLevelCol="3"/>
@@ -3362,27 +3848,27 @@
   <sheetData>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="1" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/课件/SSM/Mybatis/MyBatis笔记.xlsx
+++ b/课件/SSM/Mybatis/MyBatis笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="mybatis基本操作" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="153">
   <si>
     <t>MyBatis</t>
   </si>
@@ -284,6 +284,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">collection </t>
     </r>
     <r>
@@ -389,6 +396,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">item </t>
     </r>
     <r>
@@ -424,6 +438,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">open </t>
     </r>
     <r>
@@ -439,6 +460,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">separator </t>
     </r>
     <r>
@@ -454,6 +482,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">close </t>
     </r>
     <r>
@@ -675,6 +710,21 @@
     <t>类要实现序列化接口</t>
   </si>
   <si>
+    <t>注意：二级缓存使用需要把不同sqlSession关闭close() 或者 提交commit() 二级缓存才生效</t>
+  </si>
+  <si>
+    <t>查询执行的顺序：</t>
+  </si>
+  <si>
+    <t>二级缓存</t>
+  </si>
+  <si>
+    <t>一级缓存</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
     <t>简单注解</t>
   </si>
   <si>
@@ -700,7 +750,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,6 +792,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1259,10 +1316,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,34 +1328,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1310,98 +1364,101 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1411,8 +1468,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3061,7 +3119,7 @@
       </c>
     </row>
     <row r="7" ht="20.25" spans="4:4">
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3295,11 +3353,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="2" ht="27.75" spans="2:2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3309,12 +3367,12 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3334,103 +3392,103 @@
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="36" spans="4:15">
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O36" s="6" t="s">
+      <c r="O36" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="4:16">
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P38" s="8" t="s">
+      <c r="P38" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" ht="27.75" spans="2:2">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="3:4">
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="58" spans="3:3">
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="120" spans="3:3">
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="122" spans="4:11">
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K122" s="6" t="s">
+      <c r="K122" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="132" ht="24" spans="4:4">
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="133" ht="24" spans="4:4">
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="134" ht="24" spans="4:4">
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="135" ht="24" spans="4:4">
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="136" ht="24" spans="4:4">
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3446,7 +3504,7 @@
   <sheetPr/>
   <dimension ref="B3:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+    <sheetView topLeftCell="A135" workbookViewId="0">
       <selection activeCell="J154" sqref="J154"/>
     </sheetView>
   </sheetViews>
@@ -3740,10 +3798,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:K71"/>
+  <dimension ref="B3:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3823,6 +3881,31 @@
     <row r="71" spans="4:4">
       <c r="D71" s="2" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5">
+      <c r="E83" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5">
+      <c r="E85" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5">
+      <c r="E87" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3848,27 +3931,27 @@
   <sheetData>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
